--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Snca-Lag3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Snca-Lag3.xlsx
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Snca</t>
+  </si>
+  <si>
+    <t>Lag3</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Snca</t>
-  </si>
-  <si>
-    <t>Lag3</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -534,25 +534,25 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.231516</v>
+        <v>0.0323565</v>
       </c>
       <c r="H2">
-        <v>0.4630320000000001</v>
+        <v>0.06471300000000001</v>
       </c>
       <c r="I2">
-        <v>0.9492666072590301</v>
+        <v>0.076622967590378</v>
       </c>
       <c r="J2">
-        <v>0.9257825621011213</v>
+        <v>0.076622967590378</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.6221625</v>
+        <v>11.1710695</v>
       </c>
       <c r="N2">
-        <v>13.244325</v>
+        <v>22.342139</v>
       </c>
       <c r="O2">
-        <v>0.1645660484012193</v>
+        <v>0.3825233089595566</v>
       </c>
       <c r="P2">
-        <v>0.1234907935648703</v>
+        <v>0.3232015958207352</v>
       </c>
       <c r="Q2">
-        <v>1.53313657335</v>
+        <v>0.3614567102767501</v>
       </c>
       <c r="R2">
-        <v>6.132546293400001</v>
+        <v>1.445826841107</v>
       </c>
       <c r="S2">
-        <v>0.1562170544358508</v>
+        <v>0.02931007110497226</v>
       </c>
       <c r="T2">
-        <v>0.1143256232623863</v>
+        <v>0.02476466540173064</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,25 +596,25 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.231516</v>
+        <v>0.0323565</v>
       </c>
       <c r="H3">
-        <v>0.4630320000000001</v>
+        <v>0.06471300000000001</v>
       </c>
       <c r="I3">
-        <v>0.9492666072590301</v>
+        <v>0.076622967590378</v>
       </c>
       <c r="J3">
-        <v>0.9257825621011213</v>
+        <v>0.076622967590378</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>12.442826</v>
       </c>
       <c r="O3">
-        <v>0.1030714013115781</v>
+        <v>0.1420237329507858</v>
       </c>
       <c r="P3">
-        <v>0.1160175740877395</v>
+        <v>0.1799980395663877</v>
       </c>
       <c r="Q3">
-        <v>0.9602377680720001</v>
+        <v>0.134202099823</v>
       </c>
       <c r="R3">
-        <v>5.761426608432001</v>
+        <v>0.8052125989380001</v>
       </c>
       <c r="S3">
-        <v>0.0978422394284757</v>
+        <v>0.01088227988695256</v>
       </c>
       <c r="T3">
-        <v>0.1074070469877041</v>
+        <v>0.0137919839520269</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.231516</v>
+        <v>0.0323565</v>
       </c>
       <c r="H4">
-        <v>0.4630320000000001</v>
+        <v>0.06471300000000001</v>
       </c>
       <c r="I4">
-        <v>0.9492666072590301</v>
+        <v>0.076622967590378</v>
       </c>
       <c r="J4">
-        <v>0.9257825621011213</v>
+        <v>0.076622967590378</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.258904333333334</v>
+        <v>2.534243</v>
       </c>
       <c r="N4">
-        <v>15.776713</v>
+        <v>7.602729</v>
       </c>
       <c r="O4">
-        <v>0.1306879897702171</v>
+        <v>0.08677835350210591</v>
       </c>
       <c r="P4">
-        <v>0.147102914509815</v>
+        <v>0.1099811502109347</v>
       </c>
       <c r="Q4">
-        <v>1.217520495636</v>
+        <v>0.08199923362950001</v>
       </c>
       <c r="R4">
-        <v>7.305122973816001</v>
+        <v>0.4919954017770001</v>
       </c>
       <c r="S4">
-        <v>0.1240577446586768</v>
+        <v>0.006649214967938227</v>
       </c>
       <c r="T4">
-        <v>0.1361853130874388</v>
+        <v>0.008427082108164941</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.231516</v>
+        <v>0.0323565</v>
       </c>
       <c r="H5">
-        <v>0.4630320000000001</v>
+        <v>0.06471300000000001</v>
       </c>
       <c r="I5">
-        <v>0.9492666072590301</v>
+        <v>0.076622967590378</v>
       </c>
       <c r="J5">
-        <v>0.9257825621011213</v>
+        <v>0.076622967590378</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.848795</v>
+        <v>7.312259</v>
       </c>
       <c r="N5">
-        <v>13.69759</v>
+        <v>14.624518</v>
       </c>
       <c r="O5">
-        <v>0.1701980477615928</v>
+        <v>0.2503886945336163</v>
       </c>
       <c r="P5">
-        <v>0.1277170606298344</v>
+        <v>0.211558416842231</v>
       </c>
       <c r="Q5">
-        <v>1.58560562322</v>
+        <v>0.2365991083335</v>
       </c>
       <c r="R5">
-        <v>6.342422492880001</v>
+        <v>0.9463964333340001</v>
       </c>
       <c r="S5">
-        <v>0.1615633233607576</v>
+        <v>0.01918552482624634</v>
       </c>
       <c r="T5">
-        <v>0.1182382276139123</v>
+        <v>0.01621023371717394</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,25 +782,25 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.231516</v>
+        <v>0.0323565</v>
       </c>
       <c r="H6">
-        <v>0.4630320000000001</v>
+        <v>0.06471300000000001</v>
       </c>
       <c r="I6">
-        <v>0.9492666072590301</v>
+        <v>0.076622967590378</v>
       </c>
       <c r="J6">
-        <v>0.9257825621011213</v>
+        <v>0.076622967590378</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.123003666666667</v>
+        <v>2.016508333333333</v>
       </c>
       <c r="N6">
-        <v>21.369011</v>
+        <v>6.049525</v>
       </c>
       <c r="O6">
-        <v>0.1770123530147032</v>
+        <v>0.06904991865024089</v>
       </c>
       <c r="P6">
-        <v>0.1992457996980928</v>
+        <v>0.08751248633613068</v>
       </c>
       <c r="Q6">
-        <v>1.649089316892</v>
+        <v>0.06524715188750001</v>
       </c>
       <c r="R6">
-        <v>9.894535901352002</v>
+        <v>0.391482911325</v>
       </c>
       <c r="S6">
-        <v>0.168031915789205</v>
+        <v>0.005290809678855645</v>
       </c>
       <c r="T6">
-        <v>0.1844582869323871</v>
+        <v>0.006705466404286738</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.231516</v>
+        <v>0.0323565</v>
       </c>
       <c r="H7">
-        <v>0.4630320000000001</v>
+        <v>0.06471300000000001</v>
       </c>
       <c r="I7">
-        <v>0.9492666072590301</v>
+        <v>0.076622967590378</v>
       </c>
       <c r="J7">
-        <v>0.9257825621011213</v>
+        <v>0.076622967590378</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.239676</v>
+        <v>2.021942333333333</v>
       </c>
       <c r="N7">
-        <v>30.719028</v>
+        <v>6.065827</v>
       </c>
       <c r="O7">
-        <v>0.2544641597406895</v>
+        <v>0.06923599140369445</v>
       </c>
       <c r="P7">
-        <v>0.2864258575096481</v>
+        <v>0.08774831122358079</v>
       </c>
       <c r="Q7">
-        <v>2.370648828816</v>
+        <v>0.06542297710849999</v>
       </c>
       <c r="R7">
-        <v>14.223892972896</v>
+        <v>0.392537862651</v>
       </c>
       <c r="S7">
-        <v>0.2415543295860642</v>
+        <v>0.005305067125412969</v>
       </c>
       <c r="T7">
-        <v>0.2651680642172927</v>
+        <v>0.006723536006994832</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,25 +906,25 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.01237333333333333</v>
+        <v>0.3899255</v>
       </c>
       <c r="H8">
-        <v>0.03712</v>
+        <v>0.779851</v>
       </c>
       <c r="I8">
-        <v>0.05073339274096995</v>
+        <v>0.923377032409622</v>
       </c>
       <c r="J8">
-        <v>0.07421743789887873</v>
+        <v>0.923377032409622</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.6221625</v>
+        <v>11.1710695</v>
       </c>
       <c r="N8">
-        <v>13.244325</v>
+        <v>22.342139</v>
       </c>
       <c r="O8">
-        <v>0.1645660484012193</v>
+        <v>0.3825233089595566</v>
       </c>
       <c r="P8">
-        <v>0.1234907935648703</v>
+        <v>0.3232015958207352</v>
       </c>
       <c r="Q8">
-        <v>0.081938224</v>
+        <v>4.35588486032225</v>
       </c>
       <c r="R8">
-        <v>0.491629344</v>
+        <v>17.423539441289</v>
       </c>
       <c r="S8">
-        <v>0.008348993965368529</v>
+        <v>0.3532132378545844</v>
       </c>
       <c r="T8">
-        <v>0.009165170302484014</v>
+        <v>0.2984369304190045</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,25 +968,25 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.01237333333333333</v>
+        <v>0.3899255</v>
       </c>
       <c r="H9">
-        <v>0.03712</v>
+        <v>0.779851</v>
       </c>
       <c r="I9">
-        <v>0.05073339274096995</v>
+        <v>0.923377032409622</v>
       </c>
       <c r="J9">
-        <v>0.07421743789887873</v>
+        <v>0.923377032409622</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>12.442826</v>
       </c>
       <c r="O9">
-        <v>0.1030714013115781</v>
+        <v>0.1420237329507858</v>
       </c>
       <c r="P9">
-        <v>0.1160175740877395</v>
+        <v>0.1799980395663877</v>
       </c>
       <c r="Q9">
-        <v>0.05131974456888889</v>
+        <v>1.617258383154333</v>
       </c>
       <c r="R9">
-        <v>0.46187770112</v>
+        <v>9.703550298926</v>
       </c>
       <c r="S9">
-        <v>0.005229161883102417</v>
+        <v>0.1311414530638332</v>
       </c>
       <c r="T9">
-        <v>0.008610527100035369</v>
+        <v>0.1662060556143608</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,25 +1030,25 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.01237333333333333</v>
+        <v>0.3899255</v>
       </c>
       <c r="H10">
-        <v>0.03712</v>
+        <v>0.779851</v>
       </c>
       <c r="I10">
-        <v>0.05073339274096995</v>
+        <v>0.923377032409622</v>
       </c>
       <c r="J10">
-        <v>0.07421743789887873</v>
+        <v>0.923377032409622</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.258904333333334</v>
+        <v>2.534243</v>
       </c>
       <c r="N10">
-        <v>15.776713</v>
+        <v>7.602729</v>
       </c>
       <c r="O10">
-        <v>0.1306879897702171</v>
+        <v>0.08677835350210591</v>
       </c>
       <c r="P10">
-        <v>0.147102914509815</v>
+        <v>0.1099811502109347</v>
       </c>
       <c r="Q10">
-        <v>0.06507017628444445</v>
+        <v>0.9881659688965</v>
       </c>
       <c r="R10">
-        <v>0.58563158656</v>
+        <v>5.928995813379</v>
       </c>
       <c r="S10">
-        <v>0.006630245111540288</v>
+        <v>0.08012913853416768</v>
       </c>
       <c r="T10">
-        <v>0.01091760142237626</v>
+        <v>0.1015540681027697</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.01237333333333333</v>
+        <v>0.3899255</v>
       </c>
       <c r="H11">
-        <v>0.03712</v>
+        <v>0.779851</v>
       </c>
       <c r="I11">
-        <v>0.05073339274096995</v>
+        <v>0.923377032409622</v>
       </c>
       <c r="J11">
-        <v>0.07421743789887873</v>
+        <v>0.923377032409622</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.848795</v>
+        <v>7.312259</v>
       </c>
       <c r="N11">
-        <v>13.69759</v>
+        <v>14.624518</v>
       </c>
       <c r="O11">
-        <v>0.1701980477615928</v>
+        <v>0.2503886945336163</v>
       </c>
       <c r="P11">
-        <v>0.1277170606298344</v>
+        <v>0.211558416842231</v>
       </c>
       <c r="Q11">
-        <v>0.08474242346666666</v>
+        <v>2.8512362467045</v>
       </c>
       <c r="R11">
-        <v>0.5084545408</v>
+        <v>11.404944986818</v>
       </c>
       <c r="S11">
-        <v>0.008634724400835249</v>
+        <v>0.23120316970737</v>
       </c>
       <c r="T11">
-        <v>0.009478833015922065</v>
+        <v>0.195348183125057</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1154,25 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.01237333333333333</v>
+        <v>0.3899255</v>
       </c>
       <c r="H12">
-        <v>0.03712</v>
+        <v>0.779851</v>
       </c>
       <c r="I12">
-        <v>0.05073339274096995</v>
+        <v>0.923377032409622</v>
       </c>
       <c r="J12">
-        <v>0.07421743789887873</v>
+        <v>0.923377032409622</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.123003666666667</v>
+        <v>2.016508333333333</v>
       </c>
       <c r="N12">
-        <v>21.369011</v>
+        <v>6.049525</v>
       </c>
       <c r="O12">
-        <v>0.1770123530147032</v>
+        <v>0.06904991865024089</v>
       </c>
       <c r="P12">
-        <v>0.1992457996980928</v>
+        <v>0.08751248633613068</v>
       </c>
       <c r="Q12">
-        <v>0.08813529870222223</v>
+        <v>0.7862880201291667</v>
       </c>
       <c r="R12">
-        <v>0.7932176883200001</v>
+        <v>4.717728120775</v>
       </c>
       <c r="S12">
-        <v>0.008980437225498152</v>
+        <v>0.06375910897138524</v>
       </c>
       <c r="T12">
-        <v>0.01478751276570563</v>
+        <v>0.08080701993184394</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.01237333333333333</v>
+        <v>0.3899255</v>
       </c>
       <c r="H13">
-        <v>0.03712</v>
+        <v>0.779851</v>
       </c>
       <c r="I13">
-        <v>0.05073339274096995</v>
+        <v>0.923377032409622</v>
       </c>
       <c r="J13">
-        <v>0.07421743789887873</v>
+        <v>0.923377032409622</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.239676</v>
+        <v>2.021942333333333</v>
       </c>
       <c r="N13">
-        <v>30.719028</v>
+        <v>6.065827</v>
       </c>
       <c r="O13">
-        <v>0.2544641597406895</v>
+        <v>0.06923599140369445</v>
       </c>
       <c r="P13">
-        <v>0.2864258575096481</v>
+        <v>0.08774831122358079</v>
       </c>
       <c r="Q13">
-        <v>0.1266989243733334</v>
+        <v>0.7884068752961665</v>
       </c>
       <c r="R13">
-        <v>1.14029031936</v>
+        <v>4.730441251776999</v>
       </c>
       <c r="S13">
-        <v>0.01290983015462531</v>
+        <v>0.06393092427828148</v>
       </c>
       <c r="T13">
-        <v>0.0212577932923554</v>
+        <v>0.08102477521658595</v>
       </c>
     </row>
   </sheetData>
